--- a/Accounts-Schedules/تدريب طلبات يوم 7-4-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب طلبات يوم 7-4-2025 تجمع.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="105">
   <si>
     <r>
       <rPr>
@@ -439,6 +439,36 @@
   <si>
     <t>CIM</t>
   </si>
+  <si>
+    <t>Kindly find below the updated schedule for Talabat Tele-sales, please note that the schedule will remain the same till further notice:</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Mohamed Mahmoud Abdelaziz</t>
+  </si>
 </sst>
 </file>
 
@@ -453,7 +483,7 @@
     <numFmt numFmtId="179" formatCode="00000000000"/>
     <numFmt numFmtId="180" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +536,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11.25"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -516,12 +558,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -695,7 +731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +788,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF5A00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA2C4C9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -943,7 +985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1116,6 +1158,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1270,55 +1372,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1333,74 +1432,77 @@
     <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1486,34 +1588,54 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1529,25 +1651,25 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1885,342 +2007,342 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="30"/>
+      <c r="A2" s="38"/>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="25.75" spans="1:14">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="41">
         <v>1281804393</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="43"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" ht="25.75" spans="1:14">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="43">
         <v>1225945969</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="54">
         <v>1271114849</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="56" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:14">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="43">
         <v>1117776684</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="57">
         <v>1152621423</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:14">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="43">
         <v>1144718566</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="57">
         <v>1117776684</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:14">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="43">
         <v>1117144455</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="57">
         <v>1274743370</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="48" t="s">
+      <c r="N8" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="10:14">
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="57">
         <v>1124220159</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="48" t="s">
+      <c r="N9" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="10:14">
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="57">
         <v>1007884992</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="48" t="s">
+      <c r="N10" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:14">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="K11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="57">
         <v>1110071185</v>
       </c>
-      <c r="M11" s="47" t="s">
+      <c r="M11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="48" t="s">
+      <c r="N11" s="56" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:14">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="43">
         <v>1281804393</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="57">
         <v>1013030118</v>
       </c>
-      <c r="M12" s="47" t="s">
+      <c r="M12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="48" t="s">
+      <c r="N12" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:14">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="57">
         <v>1070340987</v>
       </c>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="48" t="s">
+      <c r="N13" s="56" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:14">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="43">
         <v>1117776684</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="57">
         <v>1008989363</v>
       </c>
-      <c r="M14" s="47" t="s">
+      <c r="M14" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="48" t="s">
+      <c r="N14" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:6">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="43">
         <v>1144718566</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.75" spans="1:6">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="43">
         <v>1117144455</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2234,15 +2356,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J39"/>
+  <dimension ref="A2:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="9.09090909090909" customWidth="1"/>
+    <col min="1" max="1" width="11.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="27.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="13.3636363636364" customWidth="1"/>
     <col min="4" max="4" width="16.7272727272727" customWidth="1"/>
     <col min="5" max="5" width="20.4545454545455" customWidth="1"/>
@@ -2888,6 +3011,320 @@
         <v>0.833333333333333</v>
       </c>
     </row>
+    <row r="42" ht="17" spans="1:9">
+      <c r="A42" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" ht="15.25" spans="1:9">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="33">
+        <v>10305637</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D45" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E45" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F45" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G45" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="33">
+        <v>10322035</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D46" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E46" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F46" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G46" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="33">
+        <v>10331412</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D47" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E47" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F47" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G47" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="33">
+        <v>10331413</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D48" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E48" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F48" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G48" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="33">
+        <v>10331414</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D49" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E49" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F49" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G49" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="33">
+        <v>10322712</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D50" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E50" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F50" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G50" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="33">
+        <v>10331426</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D51" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E51" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F51" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G51" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="33">
+        <v>10331422</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D52" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E52" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F52" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G52" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="33">
+        <v>10331421</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D53" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="E53" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F53" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G53" s="35">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C38:C39"/>
